--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/supply/ViU_Costs_for_on_market_supply.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/supply/ViU_Costs_for_on_market_supply.xlsx
@@ -558,7 +558,7 @@
         <v>40.4341018670077</v>
       </c>
       <c r="I3" t="n">
-        <v>40.5044669935476</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>40.5044669935476</v>
@@ -570,7 +570,7 @@
         <v>40.5044669935476</v>
       </c>
       <c r="M3" t="n">
-        <v>40.5044669935476</v>
+        <v>0</v>
       </c>
       <c r="N3" t="inlineStr"/>
     </row>
@@ -598,25 +598,25 @@
         <v>35.535366460957</v>
       </c>
       <c r="G4" t="n">
-        <v>34.3885759386461</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34.3885759386461</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>34.3885759386461</v>
       </c>
       <c r="J4" t="n">
-        <v>34.3885759386461</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.3885759386461</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>34.3885759386461</v>
       </c>
       <c r="M4" t="n">
-        <v>34.3885759386461</v>
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr"/>
     </row>
@@ -650,7 +650,7 @@
         <v>22.236105355877</v>
       </c>
       <c r="I5" t="n">
-        <v>22.236105355877</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>22.236105355877</v>
@@ -659,10 +659,10 @@
         <v>22.236105355877</v>
       </c>
       <c r="L5" t="n">
-        <v>22.236105355877</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>22.236105355877</v>
+        <v>0</v>
       </c>
       <c r="N5" t="inlineStr"/>
     </row>
@@ -684,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>46.6280343483096</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>47.2958448671864</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>47.8234973060628</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>47.8941359994057</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>47.8941359994057</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>47.8941359994057</v>
       </c>
       <c r="N6" t="inlineStr"/>
     </row>
@@ -742,7 +742,7 @@
         <v>48.3218027859539</v>
       </c>
       <c r="I7" t="n">
-        <v>48.2156660529821</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>48.2156660529821</v>
@@ -751,10 +751,10 @@
         <v>48.2156660529821</v>
       </c>
       <c r="L7" t="n">
-        <v>48.2156660529821</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>48.2156660529821</v>
+        <v>0</v>
       </c>
       <c r="N7" t="inlineStr"/>
     </row>
@@ -773,13 +773,13 @@
         <v>34.8933931842438</v>
       </c>
       <c r="D8" t="n">
-        <v>33.8315742252765</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0325203217429</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>35.7718373925546</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>35.6874372677121</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>35.6874372677121</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>35.6874372677121</v>
       </c>
       <c r="N8" t="inlineStr"/>
     </row>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>36.9074821792702</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>38.643404751856</v>
       </c>
       <c r="F9" t="n">
-        <v>39.2797888933738</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>39.7826106292443</v>
@@ -865,34 +865,34 @@
         <v>50.9073625629338</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>48.1314625481329</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>51.3764035319645</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>50.9974695168088</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>51.0297511124739</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50.9396721251039</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.8495931377339</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>50.8495931377339</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>50.8495931377339</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>50.8495931377339</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>50.8495931377339</v>
       </c>
       <c r="N10" t="inlineStr"/>
     </row>
@@ -917,28 +917,28 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>44.9698175326474</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>45.3484165256125</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>45.3484165256125</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>45.3484165256125</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>45.3484165256125</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>45.3484165256125</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>45.3484165256125</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>45.3484165256125</v>
       </c>
       <c r="N11" t="inlineStr"/>
     </row>
@@ -966,25 +966,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>60.254933695857</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>60.254933695857</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>60.3479853722731</v>
       </c>
       <c r="N12" t="inlineStr"/>
     </row>
@@ -1003,16 +1003,16 @@
         <v>50.1188835237175</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>45.7390444787347</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.1157249853541</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>48.3961830051755</v>
       </c>
       <c r="H13" t="n">
         <v>48.216355097444</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>48.0365271897126</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>48.0365271897126</v>
       </c>
       <c r="L13" t="n">
         <v>48.0365271897126</v>
@@ -1058,25 +1058,25 @@
         <v>45.4915746511937</v>
       </c>
       <c r="G14" t="n">
-        <v>45.7962612232657</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>45.6235955672365</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>45.4509299112072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.4509299112072</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>45.4509299112072</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>45.4509299112072</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>45.4509299112072</v>
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr"/>
     </row>
@@ -1101,28 +1101,28 @@
         <v>38.4503459274682</v>
       </c>
       <c r="F15" t="n">
-        <v>39.0445983092514</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.5138773302607</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>39.5138773302607</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.5767437846837</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>39.5767437846837</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.5767437846837</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>39.5767437846837</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>39.5767437846837</v>
+        <v>0</v>
       </c>
       <c r="N15" t="inlineStr"/>
     </row>
@@ -1144,31 +1144,31 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>39.808861365368</v>
       </c>
       <c r="F16" t="n">
         <v>40.3993925010559</v>
       </c>
       <c r="G16" t="n">
-        <v>40.8659847232064</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>40.8659847232064</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>40.9284490699398</v>
       </c>
       <c r="J16" t="n">
-        <v>40.9284490699398</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.9284490699398</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>40.9284490699398</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>40.9284490699398</v>
+        <v>0</v>
       </c>
       <c r="N16" t="inlineStr"/>
     </row>
@@ -1190,7 +1190,7 @@
         <v>35.1976705955596</v>
       </c>
       <c r="E17" t="n">
-        <v>36.9552916259037</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>37.612126655637</v>
@@ -1233,22 +1233,22 @@
         <v>35.1660266036983</v>
       </c>
       <c r="D18" t="n">
-        <v>34.6188795141133</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>37.1605675690163</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>36.806475882732</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>34.4780595019075</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>34.3968812526609</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.3157030034144</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>34.3157030034144</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>56.5066078730487</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>56.5066078730487</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>56.5066078730487</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>56.5066078730487</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>56.5066078730487</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>56.5066078730487</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>56.5066078730487</v>
       </c>
       <c r="N19" t="inlineStr"/>
     </row>
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>54.3076488215201</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>56.4847680125542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>56.279003012013</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>52.0417204182456</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1371,22 +1371,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>35.3561921629865</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>33.2318971010183</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>33.5044905769325</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>33.6588470872439</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>33.6588470872439</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>33.6861878986474</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>44.3343937455212</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>44.9250779527397</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>44.9976104273599</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>44.9976104273599</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>44.9976104273599</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1478,7 +1478,7 @@
         <v>40.2878301697379</v>
       </c>
       <c r="I23" t="n">
-        <v>40.3677787591312</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>40.3677787591312</v>
@@ -1662,7 +1662,7 @@
         <v>36.8301884844047</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6946140901467</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>36.6946140901467</v>
@@ -1671,10 +1671,10 @@
         <v>36.6946140901467</v>
       </c>
       <c r="L27" t="n">
-        <v>36.6946140901467</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>36.6946140901467</v>
+        <v>0</v>
       </c>
       <c r="N27" t="inlineStr"/>
     </row>
@@ -1693,34 +1693,34 @@
         <v>23.0855888455395</v>
       </c>
       <c r="D28" t="n">
-        <v>22.6554830282099</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24.1248107912338</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.9046070862724</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23.9060151670462</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>23.8582847232619</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>23.8105542794776</v>
       </c>
       <c r="J28" t="n">
-        <v>23.8105542794776</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>23.8105542794776</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>23.8105542794776</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>23.8105542794776</v>
+        <v>0</v>
       </c>
       <c r="N28" t="inlineStr"/>
     </row>
@@ -1803,13 +1803,13 @@
         <v>48.4913604942146</v>
       </c>
       <c r="J30" t="n">
-        <v>48.4913604942146</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>48.4913604942146</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>48.4913604942146</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>48.4913604942146</v>
@@ -1837,16 +1837,16 @@
         <v>35.9047428033915</v>
       </c>
       <c r="F31" t="n">
-        <v>36.6513701909757</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>37.3271830964183</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>37.819056631296</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>38.3179807889719</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>38.7744506879252</v>
@@ -1858,7 +1858,7 @@
         <v>39.6533792617254</v>
       </c>
       <c r="M31" t="n">
-        <v>40.0790866729814</v>
+        <v>0</v>
       </c>
       <c r="N31" t="inlineStr"/>
     </row>
@@ -1921,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>29.2488730426056</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>30.7840069540751</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>31.3718830643486</v>
       </c>
       <c r="G33" t="n">
         <v>31.8358984023834</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>35.669898091534</v>
       </c>
       <c r="E34" t="n">
         <v>37.5997167609332</v>
@@ -2059,34 +2059,34 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>41.8577702551025</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>43.6344782077778</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>44.2846302754342</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>44.7983303661672</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>44.7983303661672</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>44.8671012094458</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>44.8671012094458</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>44.8671012094458</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>44.8671012094458</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>44.8671012094458</v>
       </c>
       <c r="N36" t="inlineStr"/>
     </row>
@@ -2105,34 +2105,34 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>48.6985140886701</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>50.5073806932064</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>51.1590993923511</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>51.6740373146281</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>51.6740373146281</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>51.7429738707821</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>51.7429738707821</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>51.7429738707821</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>51.7429738707821</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>51.7429738707821</v>
       </c>
       <c r="N37" t="inlineStr"/>
     </row>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>48.3321659602042</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2206,22 +2206,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>50.1367175985856</v>
       </c>
       <c r="H39" t="n">
         <v>50.1367175985856</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>50.2073562919285</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>50.2073562919285</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>50.2073562919285</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>50.2073562919285</v>
       </c>
       <c r="M39" t="n">
         <v>50.2073562919285</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>39.5607500343081</v>
       </c>
       <c r="E40" t="n">
         <v>41.3525982906157</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>44.4765764396143</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>47.8097517157213</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>49.7109112969368</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2347,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>50.9460197099215</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>51.0190010129927</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2381,28 +2381,28 @@
         <v>45.4192146471631</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>51.9437468726661</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>55.5423600964069</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>55.0202481262498</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>55.6633512104006</v>
       </c>
       <c r="H43" t="n">
         <v>55.6633512104006</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>55.6633512104006</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>55.6633512104006</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>55.6633512104006</v>
       </c>
       <c r="L43" t="n">
         <v>55.6633512104006</v>
